--- a/docs/exempleverifSP.xlsx
+++ b/docs/exempleverifSP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://iomint.sharepoint.com/sites/RegionalCordinationPlatform/Shared Documents/General/IM/RMRP 2023-24/Submission/Submission2324QualityApp/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_4E5BDD7C224A432C20411D5CB1B4114FB637D349" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{48715E57-CAD8-4F68-946B-069BE4FE2982}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_4E5BDD7C224A432C20411D5CB1B4114FB637D349" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D35CE2C-6326-4535-A42F-4035B2090E1C}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -607,11 +607,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AM16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="U22" sqref="U22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:AA16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -819,7 +818,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2024</v>
       </c>
@@ -866,7 +865,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="4" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2023</v>
       </c>
@@ -919,7 +918,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="5" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2024</v>
       </c>
@@ -972,7 +971,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>2023</v>
       </c>
@@ -1025,7 +1024,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="7" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2024</v>
       </c>
@@ -1072,7 +1071,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="8" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2023</v>
       </c>
@@ -1309,7 +1308,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>2023</v>
       </c>
@@ -1365,7 +1364,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>2024</v>
       </c>
@@ -1421,7 +1420,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="13" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2023</v>
       </c>
@@ -1474,7 +1473,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>2024</v>
       </c>
@@ -1536,7 +1535,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="15" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>2023</v>
       </c>
@@ -1595,7 +1594,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="16" spans="1:39" hidden="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>2024</v>
       </c>
@@ -1655,27 +1654,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AM16" xr:uid="{00000000-0001-0000-0000-000000000000}">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Asistencia directa"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:AM16" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EFD7C8349A9406459E368CD7F514FE79" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ece92ef3fb84119af138e53983a11abb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fd4a0f5b-7cde-4b5a-a880-b1d6b61f2e81" xmlns:ns3="5146c389-b906-4f30-a64f-4dbeeedc5eb4" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b24582b3e75e6b598dd8553c2a834c0a" ns2:_="" ns3:_="">
     <xsd:import namespace="fd4a0f5b-7cde-4b5a-a880-b1d6b61f2e81"/>
@@ -1918,15 +1902,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E26B06-DFD9-440D-8842-61EC8BC82084}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3280BE9-889D-4C9B-9301-751188E4562F}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1943,4 +1928,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9E26B06-DFD9-440D-8842-61EC8BC82084}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>